--- a/generate-code-project/src/main/resources/excel/实战导入模板.xlsx
+++ b/generate-code-project/src/main/resources/excel/实战导入模板.xlsx
@@ -7,175 +7,188 @@
     <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="电子版" sheetId="1" r:id="rId1"/>
+    <sheet name="南湖（平均值）" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">电子版!$A$1:$AN$2</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>所属水体</t>
-  </si>
-  <si>
-    <t>断面名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+  <si>
+    <t>水质评价</t>
   </si>
   <si>
     <t>水质目标</t>
   </si>
   <si>
-    <t>水质类别</t>
-  </si>
-  <si>
-    <t>是否达标</t>
-  </si>
-  <si>
-    <t>潮汐</t>
-  </si>
-  <si>
-    <t>年份</t>
+    <t>湖库名称</t>
+  </si>
+  <si>
+    <t>年度</t>
   </si>
   <si>
     <t>季度</t>
   </si>
   <si>
-    <t>服务人口数量(人)</t>
-  </si>
-  <si>
-    <t>日供水规模（吨）</t>
-  </si>
-  <si>
-    <t>水温(℃)</t>
-  </si>
-  <si>
-    <t>pH(无量纲)</t>
-  </si>
-  <si>
-    <t>溶解氧(mg/L)</t>
-  </si>
-  <si>
-    <t>高锰酸盐指数(mg/L)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化学需氧量(mg/L) </t>
-  </si>
-  <si>
-    <t>五日生化需氧量(mg/L)</t>
-  </si>
-  <si>
-    <t>氨氮(mg/L)</t>
-  </si>
-  <si>
-    <t>总磷(mg/L)</t>
-  </si>
-  <si>
-    <t>总氮(mg/L)</t>
-  </si>
-  <si>
-    <t>铜(mg/L)</t>
-  </si>
-  <si>
-    <t>锌(mg/L)</t>
-  </si>
-  <si>
-    <t>氟化物(mg/L)</t>
-  </si>
-  <si>
-    <t>硒(mg/L)</t>
-  </si>
-  <si>
-    <t>砷(mg/L)</t>
-  </si>
-  <si>
-    <t>汞(mg/L)</t>
-  </si>
-  <si>
-    <t>镉(mg/L)</t>
-  </si>
-  <si>
-    <t>六价铬(mg/L)</t>
-  </si>
-  <si>
-    <t>铅(mg/L)</t>
-  </si>
-  <si>
-    <t>氰化物(mg/L)</t>
-  </si>
-  <si>
-    <t>挥发酚(mg/L)</t>
-  </si>
-  <si>
-    <t>石油类(mg/L)</t>
-  </si>
-  <si>
-    <t>阴离子表面活性剂(mg/L)</t>
-  </si>
-  <si>
-    <t>硫化物(mg/L)</t>
-  </si>
-  <si>
-    <t>粪大肠菌群(mg/L)</t>
-  </si>
-  <si>
-    <t>硫酸盐(mg/L)</t>
-  </si>
-  <si>
-    <t>氯化物(mg/L)</t>
-  </si>
-  <si>
-    <t>硝酸盐氮(mg/L)</t>
-  </si>
-  <si>
-    <t>铁(mg/L)</t>
-  </si>
-  <si>
-    <t>锰(mg/L)</t>
-  </si>
-  <si>
-    <t>by-1</t>
-  </si>
-  <si>
-    <t>流溪河</t>
-  </si>
-  <si>
-    <t>穗云水厂</t>
-  </si>
-  <si>
-    <t>Ⅱ</t>
-  </si>
-  <si>
-    <t>是</t>
+    <t>电导率μS/cm</t>
+  </si>
+  <si>
+    <t>水温℃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值无量纲</t>
+    </r>
+  </si>
+  <si>
+    <t>溶解氧mg/L</t>
+  </si>
+  <si>
+    <t>透明度cm</t>
+  </si>
+  <si>
+    <t>高锰酸盐指数mg/L</t>
+  </si>
+  <si>
+    <t>化学需氧量mg/L</t>
+  </si>
+  <si>
+    <t>五日生化需氧量mg/L</t>
+  </si>
+  <si>
+    <t>氨氮mg/L</t>
+  </si>
+  <si>
+    <t>总磷mg/L</t>
+  </si>
+  <si>
+    <t>总氮mg/L</t>
+  </si>
+  <si>
+    <t>铜mg/L</t>
+  </si>
+  <si>
+    <t>锌mg/L</t>
+  </si>
+  <si>
+    <t>氟化物mg/L</t>
+  </si>
+  <si>
+    <t>硒mg/L</t>
+  </si>
+  <si>
+    <t>砷mg/L</t>
+  </si>
+  <si>
+    <t>汞mg/L</t>
+  </si>
+  <si>
+    <t>镉mg/L</t>
+  </si>
+  <si>
+    <t>六价铬mg/L</t>
+  </si>
+  <si>
+    <t>铅mg/L</t>
+  </si>
+  <si>
+    <t>氰化物mg/L</t>
+  </si>
+  <si>
+    <t>挥发酚mg/L</t>
+  </si>
+  <si>
+    <t>石油类mg/L</t>
+  </si>
+  <si>
+    <t>阴离子表面活性剂mg/L</t>
+  </si>
+  <si>
+    <t>硫化物mg/L</t>
+  </si>
+  <si>
+    <t>粪大肠菌群个/L</t>
+  </si>
+  <si>
+    <t>氧化还原电位mV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叶绿素</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>μg/L</t>
+    </r>
+  </si>
+  <si>
+    <t>盐度‰</t>
+  </si>
+  <si>
+    <t>藻密度cells/L</t>
+  </si>
+  <si>
+    <t>总硬度mg/L</t>
+  </si>
+  <si>
+    <t>硫酸盐mg/L</t>
+  </si>
+  <si>
+    <t>氯化物mg/L</t>
+  </si>
+  <si>
+    <t>硝酸盐氮mg/L</t>
+  </si>
+  <si>
+    <t>铁mg/L</t>
+  </si>
+  <si>
+    <t>锰mg/L</t>
+  </si>
+  <si>
+    <t>Ⅴ</t>
+  </si>
+  <si>
+    <t>南湖</t>
   </si>
   <si>
     <t>第一季度</t>
-  </si>
-  <si>
-    <t>0.00041L</t>
-  </si>
-  <si>
-    <t>0.00002L</t>
-  </si>
-  <si>
-    <t>0.004L</t>
-  </si>
-  <si>
-    <t>0.001L</t>
-  </si>
-  <si>
-    <t>0.0003L</t>
-  </si>
-  <si>
-    <t>0.01L</t>
-  </si>
-  <si>
-    <t>0.05L</t>
   </si>
 </sst>
 </file>
@@ -188,7 +201,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,23 +210,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -362,29 +394,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -708,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,180 +748,178 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -950,22 +969,7 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
-    <cellStyle name="常规 6 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -976,7 +980,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -986,39 +990,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,131 +1101,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1232,305 +1265,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AN2"/>
+  <sheetPr/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="7" width="5.11111111111111" customWidth="1"/>
-    <col min="8" max="8" width="6.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="7.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="10.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="5.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="15.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="26" max="26" width="8.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="13.8888888888889" customWidth="1"/>
-    <col min="29" max="32" width="8" customWidth="1"/>
-    <col min="33" max="33" width="10.1111111111111" customWidth="1"/>
-    <col min="34" max="34" width="8" customWidth="1"/>
-    <col min="35" max="35" width="10.1111111111111" customWidth="1"/>
-    <col min="36" max="40" width="8" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.1296296296296" customWidth="1"/>
+    <col min="5" max="7" width="8.62962962962963" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="21" width="8.62962962962963" customWidth="1"/>
+    <col min="22" max="22" width="18.2222222222222" customWidth="1"/>
+    <col min="23" max="33" width="8.62962962962963" customWidth="1"/>
+    <col min="35" max="35" width="9.66666666666667"/>
+    <col min="36" max="36" width="18.2222222222222" customWidth="1"/>
+    <col min="38" max="38" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29.1" customHeight="1" spans="1:40">
+    <row r="1" s="1" customFormat="1" ht="48" spans="1:41">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:41">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8">
-        <v>2024</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="9">
-        <v>500000</v>
-      </c>
-      <c r="K2" s="9">
-        <v>140000</v>
-      </c>
-      <c r="L2" s="10">
-        <v>17.9</v>
-      </c>
-      <c r="M2" s="10">
-        <v>7.6</v>
-      </c>
-      <c r="N2" s="10">
-        <v>8.16</v>
-      </c>
-      <c r="O2" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="P2" s="10">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0.312</v>
-      </c>
-      <c r="S2" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="T2" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0.00652</v>
-      </c>
-      <c r="V2" s="10">
-        <v>0.0129</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>0.00094</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>9e-5</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>48</v>
+      <c r="F2" s="11">
+        <v>228.666666666667</v>
+      </c>
+      <c r="G2" s="11">
+        <v>20.2666666666667</v>
+      </c>
+      <c r="H2" s="11">
+        <v>7.43333333333333</v>
+      </c>
+      <c r="I2" s="11">
+        <v>7.29333333333333</v>
+      </c>
+      <c r="J2" s="11">
+        <v>75</v>
+      </c>
+      <c r="K2" s="11">
+        <v>3.83333333333333</v>
+      </c>
+      <c r="L2" s="11">
+        <v>15.6666666666667</v>
+      </c>
+      <c r="M2" s="11">
+        <v>3.13333333333333</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1.27233333333333</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="P2" s="11">
+        <v>4.02666666666667</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.000136666666666667</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.327</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0.0002</v>
+      </c>
+      <c r="U2" s="11">
+        <v>0.00015</v>
+      </c>
+      <c r="V2" s="11">
+        <v>2e-5</v>
+      </c>
+      <c r="W2" s="11">
+        <v>2.5e-5</v>
+      </c>
+      <c r="X2" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>4.5e-5</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>0.00015</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>0.005</v>
       </c>
       <c r="AC2" s="11">
-        <v>0.00282</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="10">
-        <v>4700</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>7.18</v>
-      </c>
-      <c r="AK2" s="10">
-        <v>11.5</v>
-      </c>
-      <c r="AL2" s="10">
-        <v>1.07</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>51</v>
+        <v>0.025</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>0.005</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>31466.6666666667</v>
+      </c>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11">
+        <v>7.66666666666667</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>1420900</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>113.666666666667</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>20.2333333333333</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AF2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>15</formula>
-      <formula>16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>8</formula>
-      <formula>8.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
-      <formula>5</formula>
-      <formula>5.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>2</formula>
-      <formula>2.3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
-  <pageSetup paperSize="8" scale="64" orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>